--- a/artfynd/A 14717-2020.xlsx
+++ b/artfynd/A 14717-2020.xlsx
@@ -1638,10 +1638,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111231391</v>
+        <v>111231382</v>
       </c>
       <c r="B10" t="n">
-        <v>56809</v>
+        <v>56815</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1654,21 +1654,21 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>103001</v>
+        <v>102999</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Rödvingetrast</t>
+          <t>Björktrast</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Turdus iliacus</t>
+          <t>Turdus pilaris</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Linnaeus, 1766</t>
+          <t>Linnaeus, 1758</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1754,10 +1754,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111231382</v>
+        <v>111231391</v>
       </c>
       <c r="B11" t="n">
-        <v>56815</v>
+        <v>56809</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1770,21 +1770,21 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>102999</v>
+        <v>103001</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Björktrast</t>
+          <t>Rödvingetrast</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Turdus pilaris</t>
+          <t>Turdus iliacus</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Linnaeus, 1758</t>
+          <t>Linnaeus, 1766</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>

--- a/artfynd/A 14717-2020.xlsx
+++ b/artfynd/A 14717-2020.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY12"/>
+  <dimension ref="A1:AY21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1984,6 +1984,996 @@
       </c>
       <c r="AY12" t="inlineStr"/>
     </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>112279532</v>
+      </c>
+      <c r="B13" t="n">
+        <v>56476</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>102611</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Stenfalk</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Falco columbarius</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Linnaeus, 1758</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="inlineStr"/>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>Arvnäs, Ly lm</t>
+        </is>
+      </c>
+      <c r="Q13" t="n">
+        <v>694363</v>
+      </c>
+      <c r="R13" t="n">
+        <v>7166030</v>
+      </c>
+      <c r="S13" t="n">
+        <v>10</v>
+      </c>
+      <c r="T13" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U13" t="inlineStr">
+        <is>
+          <t>Lycksele</t>
+        </is>
+      </c>
+      <c r="V13" t="inlineStr">
+        <is>
+          <t>Lycksele lappmark</t>
+        </is>
+      </c>
+      <c r="W13" t="inlineStr">
+        <is>
+          <t>Lycksele</t>
+        </is>
+      </c>
+      <c r="Y13" t="inlineStr">
+        <is>
+          <t>2023-09-14</t>
+        </is>
+      </c>
+      <c r="AA13" t="inlineStr">
+        <is>
+          <t>2023-09-14</t>
+        </is>
+      </c>
+      <c r="AD13" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE13" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG13" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT13" t="inlineStr"/>
+      <c r="AW13" t="inlineStr">
+        <is>
+          <t>Monika Berg</t>
+        </is>
+      </c>
+      <c r="AX13" t="inlineStr">
+        <is>
+          <t>Monika Berg</t>
+        </is>
+      </c>
+      <c r="AY13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>112279516</v>
+      </c>
+      <c r="B14" t="n">
+        <v>56321</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>100001</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Duvhök</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Accipiter gentilis</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>födosökande</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr"/>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>Arvnäs, Ly lm</t>
+        </is>
+      </c>
+      <c r="Q14" t="n">
+        <v>694363</v>
+      </c>
+      <c r="R14" t="n">
+        <v>7166030</v>
+      </c>
+      <c r="S14" t="n">
+        <v>10</v>
+      </c>
+      <c r="T14" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U14" t="inlineStr">
+        <is>
+          <t>Lycksele</t>
+        </is>
+      </c>
+      <c r="V14" t="inlineStr">
+        <is>
+          <t>Lycksele lappmark</t>
+        </is>
+      </c>
+      <c r="W14" t="inlineStr">
+        <is>
+          <t>Lycksele</t>
+        </is>
+      </c>
+      <c r="Y14" t="inlineStr">
+        <is>
+          <t>2023-09-14</t>
+        </is>
+      </c>
+      <c r="AA14" t="inlineStr">
+        <is>
+          <t>2023-09-14</t>
+        </is>
+      </c>
+      <c r="AD14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT14" t="inlineStr"/>
+      <c r="AW14" t="inlineStr">
+        <is>
+          <t>Monika Berg</t>
+        </is>
+      </c>
+      <c r="AX14" t="inlineStr">
+        <is>
+          <t>Monika Berg</t>
+        </is>
+      </c>
+      <c r="AY14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>112281233</v>
+      </c>
+      <c r="B15" t="n">
+        <v>57042</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>EN</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>103042</v>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Grönfink</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Chloris chloris</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>födosökande</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr"/>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>Arvnäs, Ly lm</t>
+        </is>
+      </c>
+      <c r="Q15" t="n">
+        <v>694363</v>
+      </c>
+      <c r="R15" t="n">
+        <v>7166030</v>
+      </c>
+      <c r="S15" t="n">
+        <v>10</v>
+      </c>
+      <c r="T15" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U15" t="inlineStr">
+        <is>
+          <t>Lycksele</t>
+        </is>
+      </c>
+      <c r="V15" t="inlineStr">
+        <is>
+          <t>Lycksele lappmark</t>
+        </is>
+      </c>
+      <c r="W15" t="inlineStr">
+        <is>
+          <t>Lycksele</t>
+        </is>
+      </c>
+      <c r="Y15" t="inlineStr">
+        <is>
+          <t>2023-09-14</t>
+        </is>
+      </c>
+      <c r="AA15" t="inlineStr">
+        <is>
+          <t>2023-09-14</t>
+        </is>
+      </c>
+      <c r="AD15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT15" t="inlineStr"/>
+      <c r="AW15" t="inlineStr">
+        <is>
+          <t>Monika Berg</t>
+        </is>
+      </c>
+      <c r="AX15" t="inlineStr">
+        <is>
+          <t>Monika Berg</t>
+        </is>
+      </c>
+      <c r="AY15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>112292314</v>
+      </c>
+      <c r="B16" t="n">
+        <v>56446</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>100049</v>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Spillkråka</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Dryocopus martius</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>lockläte, övriga läten</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr"/>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>Arvnäs, Ly lm</t>
+        </is>
+      </c>
+      <c r="Q16" t="n">
+        <v>694363</v>
+      </c>
+      <c r="R16" t="n">
+        <v>7166030</v>
+      </c>
+      <c r="S16" t="n">
+        <v>10</v>
+      </c>
+      <c r="T16" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U16" t="inlineStr">
+        <is>
+          <t>Lycksele</t>
+        </is>
+      </c>
+      <c r="V16" t="inlineStr">
+        <is>
+          <t>Lycksele lappmark</t>
+        </is>
+      </c>
+      <c r="W16" t="inlineStr">
+        <is>
+          <t>Lycksele</t>
+        </is>
+      </c>
+      <c r="Y16" t="inlineStr">
+        <is>
+          <t>2023-09-15</t>
+        </is>
+      </c>
+      <c r="AA16" t="inlineStr">
+        <is>
+          <t>2023-09-15</t>
+        </is>
+      </c>
+      <c r="AD16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT16" t="inlineStr"/>
+      <c r="AW16" t="inlineStr">
+        <is>
+          <t>Monika Berg</t>
+        </is>
+      </c>
+      <c r="AX16" t="inlineStr">
+        <is>
+          <t>Monika Berg</t>
+        </is>
+      </c>
+      <c r="AY16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>112279542</v>
+      </c>
+      <c r="B17" t="n">
+        <v>56841</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>103001</v>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Rödvingetrast</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Turdus iliacus</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Linnaeus, 1766</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
+      <c r="M17" t="inlineStr"/>
+      <c r="N17" t="inlineStr"/>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>Arvnäs, Ly lm</t>
+        </is>
+      </c>
+      <c r="Q17" t="n">
+        <v>694363</v>
+      </c>
+      <c r="R17" t="n">
+        <v>7166030</v>
+      </c>
+      <c r="S17" t="n">
+        <v>10</v>
+      </c>
+      <c r="T17" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U17" t="inlineStr">
+        <is>
+          <t>Lycksele</t>
+        </is>
+      </c>
+      <c r="V17" t="inlineStr">
+        <is>
+          <t>Lycksele lappmark</t>
+        </is>
+      </c>
+      <c r="W17" t="inlineStr">
+        <is>
+          <t>Lycksele</t>
+        </is>
+      </c>
+      <c r="Y17" t="inlineStr">
+        <is>
+          <t>2023-09-14</t>
+        </is>
+      </c>
+      <c r="AA17" t="inlineStr">
+        <is>
+          <t>2023-09-14</t>
+        </is>
+      </c>
+      <c r="AD17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT17" t="inlineStr"/>
+      <c r="AW17" t="inlineStr">
+        <is>
+          <t>Monika Berg</t>
+        </is>
+      </c>
+      <c r="AX17" t="inlineStr">
+        <is>
+          <t>Monika Berg</t>
+        </is>
+      </c>
+      <c r="AY17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>112281154</v>
+      </c>
+      <c r="B18" t="n">
+        <v>56575</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>103021</v>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Talltita</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Poecile montanus</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>(Conrad von Baldenstein, 1827)</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>födosökande</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr"/>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>Arvnäs, Ly lm</t>
+        </is>
+      </c>
+      <c r="Q18" t="n">
+        <v>694363</v>
+      </c>
+      <c r="R18" t="n">
+        <v>7166030</v>
+      </c>
+      <c r="S18" t="n">
+        <v>10</v>
+      </c>
+      <c r="T18" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U18" t="inlineStr">
+        <is>
+          <t>Lycksele</t>
+        </is>
+      </c>
+      <c r="V18" t="inlineStr">
+        <is>
+          <t>Lycksele lappmark</t>
+        </is>
+      </c>
+      <c r="W18" t="inlineStr">
+        <is>
+          <t>Lycksele</t>
+        </is>
+      </c>
+      <c r="Y18" t="inlineStr">
+        <is>
+          <t>2023-09-14</t>
+        </is>
+      </c>
+      <c r="AA18" t="inlineStr">
+        <is>
+          <t>2023-09-14</t>
+        </is>
+      </c>
+      <c r="AD18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT18" t="inlineStr"/>
+      <c r="AW18" t="inlineStr">
+        <is>
+          <t>Monika Berg</t>
+        </is>
+      </c>
+      <c r="AX18" t="inlineStr">
+        <is>
+          <t>Monika Berg</t>
+        </is>
+      </c>
+      <c r="AY18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>112281199</v>
+      </c>
+      <c r="B19" t="n">
+        <v>57103</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>103057</v>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Sävsparv</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Emberiza schoeniclus</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
+      <c r="M19" t="inlineStr"/>
+      <c r="N19" t="inlineStr"/>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>Arvnäs, Ly lm</t>
+        </is>
+      </c>
+      <c r="Q19" t="n">
+        <v>694363</v>
+      </c>
+      <c r="R19" t="n">
+        <v>7166030</v>
+      </c>
+      <c r="S19" t="n">
+        <v>10</v>
+      </c>
+      <c r="T19" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U19" t="inlineStr">
+        <is>
+          <t>Lycksele</t>
+        </is>
+      </c>
+      <c r="V19" t="inlineStr">
+        <is>
+          <t>Lycksele lappmark</t>
+        </is>
+      </c>
+      <c r="W19" t="inlineStr">
+        <is>
+          <t>Lycksele</t>
+        </is>
+      </c>
+      <c r="Y19" t="inlineStr">
+        <is>
+          <t>2023-09-14</t>
+        </is>
+      </c>
+      <c r="AA19" t="inlineStr">
+        <is>
+          <t>2023-09-14</t>
+        </is>
+      </c>
+      <c r="AD19" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE19" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG19" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT19" t="inlineStr"/>
+      <c r="AW19" t="inlineStr">
+        <is>
+          <t>Monika Berg</t>
+        </is>
+      </c>
+      <c r="AX19" t="inlineStr">
+        <is>
+          <t>Monika Berg</t>
+        </is>
+      </c>
+      <c r="AY19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>112279543</v>
+      </c>
+      <c r="B20" t="n">
+        <v>56847</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>102999</v>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Björktrast</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Turdus pilaris</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Linnaeus, 1758</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
+      <c r="M20" t="inlineStr"/>
+      <c r="N20" t="inlineStr"/>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>Arvnäs, Ly lm</t>
+        </is>
+      </c>
+      <c r="Q20" t="n">
+        <v>694363</v>
+      </c>
+      <c r="R20" t="n">
+        <v>7166030</v>
+      </c>
+      <c r="S20" t="n">
+        <v>10</v>
+      </c>
+      <c r="T20" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U20" t="inlineStr">
+        <is>
+          <t>Lycksele</t>
+        </is>
+      </c>
+      <c r="V20" t="inlineStr">
+        <is>
+          <t>Lycksele lappmark</t>
+        </is>
+      </c>
+      <c r="W20" t="inlineStr">
+        <is>
+          <t>Lycksele</t>
+        </is>
+      </c>
+      <c r="Y20" t="inlineStr">
+        <is>
+          <t>2023-09-14</t>
+        </is>
+      </c>
+      <c r="AA20" t="inlineStr">
+        <is>
+          <t>2023-09-14</t>
+        </is>
+      </c>
+      <c r="AD20" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE20" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG20" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT20" t="inlineStr"/>
+      <c r="AW20" t="inlineStr">
+        <is>
+          <t>Monika Berg</t>
+        </is>
+      </c>
+      <c r="AX20" t="inlineStr">
+        <is>
+          <t>Monika Berg</t>
+        </is>
+      </c>
+      <c r="AY20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>112281210</v>
+      </c>
+      <c r="B21" t="n">
+        <v>57076</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>103053</v>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Lappsparv</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Calcarius lapponicus</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>födosökande</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr"/>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>Arvnäs, Ly lm</t>
+        </is>
+      </c>
+      <c r="Q21" t="n">
+        <v>694363</v>
+      </c>
+      <c r="R21" t="n">
+        <v>7166030</v>
+      </c>
+      <c r="S21" t="n">
+        <v>10</v>
+      </c>
+      <c r="T21" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U21" t="inlineStr">
+        <is>
+          <t>Lycksele</t>
+        </is>
+      </c>
+      <c r="V21" t="inlineStr">
+        <is>
+          <t>Lycksele lappmark</t>
+        </is>
+      </c>
+      <c r="W21" t="inlineStr">
+        <is>
+          <t>Lycksele</t>
+        </is>
+      </c>
+      <c r="Y21" t="inlineStr">
+        <is>
+          <t>2023-09-14</t>
+        </is>
+      </c>
+      <c r="AA21" t="inlineStr">
+        <is>
+          <t>2023-09-14</t>
+        </is>
+      </c>
+      <c r="AD21" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE21" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG21" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT21" t="inlineStr"/>
+      <c r="AW21" t="inlineStr">
+        <is>
+          <t>Monika Berg</t>
+        </is>
+      </c>
+      <c r="AX21" t="inlineStr">
+        <is>
+          <t>Monika Berg</t>
+        </is>
+      </c>
+      <c r="AY21" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/artfynd/A 14717-2020.xlsx
+++ b/artfynd/A 14717-2020.xlsx
@@ -2096,10 +2096,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>112279516</v>
+        <v>112281199</v>
       </c>
       <c r="B14" t="n">
-        <v>56321</v>
+        <v>57103</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2112,16 +2112,16 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>100001</v>
+        <v>103057</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Duvhök</t>
+          <t>Sävsparv</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Accipiter gentilis</t>
+          <t>Emberiza schoeniclus</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -2129,18 +2129,10 @@
           <t>(Linnaeus, 1758)</t>
         </is>
       </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr">
-        <is>
-          <t>födosökande</t>
-        </is>
-      </c>
+      <c r="M14" t="inlineStr"/>
       <c r="N14" t="inlineStr"/>
       <c r="P14" t="inlineStr">
         <is>
@@ -2210,10 +2202,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>112281233</v>
+        <v>112279542</v>
       </c>
       <c r="B15" t="n">
-        <v>57042</v>
+        <v>56841</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2222,35 +2214,31 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>EN</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>103042</v>
+        <v>103001</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Grönfink</t>
+          <t>Rödvingetrast</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Chloris chloris</t>
+          <t>Turdus iliacus</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>Linnaeus, 1766</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr">
-        <is>
-          <t>födosökande</t>
-        </is>
-      </c>
+      <c r="M15" t="inlineStr"/>
       <c r="N15" t="inlineStr"/>
       <c r="P15" t="inlineStr">
         <is>
@@ -2320,10 +2308,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>112292314</v>
+        <v>112281154</v>
       </c>
       <c r="B16" t="n">
-        <v>56446</v>
+        <v>56575</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2336,33 +2324,29 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>100049</v>
+        <v>103021</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>(Conrad von Baldenstein, 1827)</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
       <c r="M16" t="inlineStr">
         <is>
-          <t>lockläte, övriga läten</t>
+          <t>födosökande</t>
         </is>
       </c>
       <c r="N16" t="inlineStr"/>
@@ -2402,12 +2386,12 @@
       </c>
       <c r="Y16" t="inlineStr">
         <is>
-          <t>2023-09-15</t>
+          <t>2023-09-14</t>
         </is>
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>2023-09-15</t>
+          <t>2023-09-14</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2434,10 +2418,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>112279542</v>
+        <v>112279543</v>
       </c>
       <c r="B17" t="n">
-        <v>56841</v>
+        <v>56847</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2450,21 +2434,21 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>103001</v>
+        <v>102999</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Rödvingetrast</t>
+          <t>Björktrast</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Turdus iliacus</t>
+          <t>Turdus pilaris</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Linnaeus, 1766</t>
+          <t>Linnaeus, 1758</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
@@ -2540,10 +2524,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>112281154</v>
+        <v>112281210</v>
       </c>
       <c r="B18" t="n">
-        <v>56575</v>
+        <v>57076</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2552,28 +2536,32 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>103021</v>
+        <v>103053</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Lappsparv</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Calcarius lapponicus</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
-        </is>
-      </c>
-      <c r="I18" t="inlineStr"/>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
       <c r="M18" t="inlineStr">
@@ -2650,10 +2638,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>112281199</v>
+        <v>112292314</v>
       </c>
       <c r="B19" t="n">
-        <v>57103</v>
+        <v>56446</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2666,16 +2654,16 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>103057</v>
+        <v>100049</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Sävsparv</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Emberiza schoeniclus</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -2683,10 +2671,18 @@
           <t>(Linnaeus, 1758)</t>
         </is>
       </c>
-      <c r="I19" t="inlineStr"/>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
-      <c r="M19" t="inlineStr"/>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>lockläte, övriga läten</t>
+        </is>
+      </c>
       <c r="N19" t="inlineStr"/>
       <c r="P19" t="inlineStr">
         <is>
@@ -2724,12 +2720,12 @@
       </c>
       <c r="Y19" t="inlineStr">
         <is>
-          <t>2023-09-14</t>
+          <t>2023-09-15</t>
         </is>
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>2023-09-14</t>
+          <t>2023-09-15</t>
         </is>
       </c>
       <c r="AD19" t="b">
@@ -2756,10 +2752,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>112279543</v>
+        <v>112281233</v>
       </c>
       <c r="B20" t="n">
-        <v>56847</v>
+        <v>57042</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2768,31 +2764,35 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>EN</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>102999</v>
+        <v>103042</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Björktrast</t>
+          <t>Grönfink</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Turdus pilaris</t>
+          <t>Chloris chloris</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Linnaeus, 1758</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
-      <c r="M20" t="inlineStr"/>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>födosökande</t>
+        </is>
+      </c>
       <c r="N20" t="inlineStr"/>
       <c r="P20" t="inlineStr">
         <is>
@@ -2862,10 +2862,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>112281210</v>
+        <v>112279516</v>
       </c>
       <c r="B21" t="n">
-        <v>57076</v>
+        <v>56321</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2874,20 +2874,20 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>103053</v>
+        <v>100001</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Lappsparv</t>
+          <t>Duvhök</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Calcarius lapponicus</t>
+          <t>Accipiter gentilis</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">

--- a/artfynd/A 14717-2020.xlsx
+++ b/artfynd/A 14717-2020.xlsx
@@ -1986,10 +1986,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>112279532</v>
+        <v>112281199</v>
       </c>
       <c r="B13" t="n">
-        <v>56476</v>
+        <v>57103</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -2002,28 +2002,24 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>102611</v>
+        <v>103057</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Stenfalk</t>
+          <t>Sävsparv</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Falco columbarius</t>
+          <t>Emberiza schoeniclus</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Linnaeus, 1758</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
       <c r="M13" t="inlineStr"/>
@@ -2096,10 +2092,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>112281199</v>
+        <v>112279542</v>
       </c>
       <c r="B14" t="n">
-        <v>57103</v>
+        <v>56841</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2112,21 +2108,21 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>103057</v>
+        <v>103001</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Sävsparv</t>
+          <t>Rödvingetrast</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Emberiza schoeniclus</t>
+          <t>Turdus iliacus</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>Linnaeus, 1766</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -2202,10 +2198,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>112279542</v>
+        <v>112281210</v>
       </c>
       <c r="B15" t="n">
-        <v>56841</v>
+        <v>57076</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2214,31 +2210,39 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>103001</v>
+        <v>103053</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Rödvingetrast</t>
+          <t>Lappsparv</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Turdus iliacus</t>
+          <t>Calcarius lapponicus</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Linnaeus, 1766</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr"/>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr"/>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>födosökande</t>
+        </is>
+      </c>
       <c r="N15" t="inlineStr"/>
       <c r="P15" t="inlineStr">
         <is>
@@ -2308,10 +2312,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>112281154</v>
+        <v>112292314</v>
       </c>
       <c r="B16" t="n">
-        <v>56575</v>
+        <v>56446</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2324,29 +2328,33 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>103021</v>
+        <v>100049</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr"/>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
       <c r="M16" t="inlineStr">
         <is>
-          <t>födosökande</t>
+          <t>lockläte, övriga läten</t>
         </is>
       </c>
       <c r="N16" t="inlineStr"/>
@@ -2386,12 +2394,12 @@
       </c>
       <c r="Y16" t="inlineStr">
         <is>
-          <t>2023-09-14</t>
+          <t>2023-09-15</t>
         </is>
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>2023-09-14</t>
+          <t>2023-09-15</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2524,10 +2532,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>112281210</v>
+        <v>112281233</v>
       </c>
       <c r="B18" t="n">
-        <v>57076</v>
+        <v>57042</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2536,20 +2544,20 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>EN</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>103053</v>
+        <v>103042</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Lappsparv</t>
+          <t>Grönfink</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Calcarius lapponicus</t>
+          <t>Chloris chloris</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -2557,11 +2565,7 @@
           <t>(Linnaeus, 1758)</t>
         </is>
       </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
       <c r="M18" t="inlineStr">
@@ -2638,10 +2642,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>112292314</v>
+        <v>112279532</v>
       </c>
       <c r="B19" t="n">
-        <v>56446</v>
+        <v>56476</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2654,21 +2658,21 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>100049</v>
+        <v>102611</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Stenfalk</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Falco columbarius</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>Linnaeus, 1758</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -2678,11 +2682,7 @@
       </c>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
-      <c r="M19" t="inlineStr">
-        <is>
-          <t>lockläte, övriga läten</t>
-        </is>
-      </c>
+      <c r="M19" t="inlineStr"/>
       <c r="N19" t="inlineStr"/>
       <c r="P19" t="inlineStr">
         <is>
@@ -2720,12 +2720,12 @@
       </c>
       <c r="Y19" t="inlineStr">
         <is>
-          <t>2023-09-15</t>
+          <t>2023-09-14</t>
         </is>
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>2023-09-15</t>
+          <t>2023-09-14</t>
         </is>
       </c>
       <c r="AD19" t="b">
@@ -2752,10 +2752,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>112281233</v>
+        <v>112281154</v>
       </c>
       <c r="B20" t="n">
-        <v>57042</v>
+        <v>56575</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2764,25 +2764,25 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>EN</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>103042</v>
+        <v>103021</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Grönfink</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Chloris chloris</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Conrad von Baldenstein, 1827)</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>

--- a/artfynd/A 14717-2020.xlsx
+++ b/artfynd/A 14717-2020.xlsx
@@ -2426,10 +2426,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>112279543</v>
+        <v>112281233</v>
       </c>
       <c r="B17" t="n">
-        <v>56847</v>
+        <v>57042</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2438,31 +2438,35 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>EN</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>102999</v>
+        <v>103042</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Björktrast</t>
+          <t>Grönfink</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Turdus pilaris</t>
+          <t>Chloris chloris</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Linnaeus, 1758</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
-      <c r="M17" t="inlineStr"/>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>födosökande</t>
+        </is>
+      </c>
       <c r="N17" t="inlineStr"/>
       <c r="P17" t="inlineStr">
         <is>
@@ -2532,10 +2536,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>112281233</v>
+        <v>112279543</v>
       </c>
       <c r="B18" t="n">
-        <v>57042</v>
+        <v>56847</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2544,35 +2548,31 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>EN</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>103042</v>
+        <v>102999</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Grönfink</t>
+          <t>Björktrast</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Chloris chloris</t>
+          <t>Turdus pilaris</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>Linnaeus, 1758</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
-      <c r="M18" t="inlineStr">
-        <is>
-          <t>födosökande</t>
-        </is>
-      </c>
+      <c r="M18" t="inlineStr"/>
       <c r="N18" t="inlineStr"/>
       <c r="P18" t="inlineStr">
         <is>

--- a/artfynd/A 14717-2020.xlsx
+++ b/artfynd/A 14717-2020.xlsx
@@ -1986,10 +1986,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>112281199</v>
+        <v>112281210</v>
       </c>
       <c r="B13" t="n">
-        <v>57103</v>
+        <v>57076</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1998,20 +1998,20 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>103057</v>
+        <v>103053</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Sävsparv</t>
+          <t>Lappsparv</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Emberiza schoeniclus</t>
+          <t>Calcarius lapponicus</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -2019,10 +2019,18 @@
           <t>(Linnaeus, 1758)</t>
         </is>
       </c>
-      <c r="I13" t="inlineStr"/>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
-      <c r="M13" t="inlineStr"/>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>födosökande</t>
+        </is>
+      </c>
       <c r="N13" t="inlineStr"/>
       <c r="P13" t="inlineStr">
         <is>
@@ -2092,10 +2100,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>112279542</v>
+        <v>112281233</v>
       </c>
       <c r="B14" t="n">
-        <v>56841</v>
+        <v>57042</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2104,31 +2112,35 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>EN</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>103001</v>
+        <v>103042</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Rödvingetrast</t>
+          <t>Grönfink</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Turdus iliacus</t>
+          <t>Chloris chloris</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Linnaeus, 1766</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr"/>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>födosökande</t>
+        </is>
+      </c>
       <c r="N14" t="inlineStr"/>
       <c r="P14" t="inlineStr">
         <is>
@@ -2198,10 +2210,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>112281210</v>
+        <v>112281199</v>
       </c>
       <c r="B15" t="n">
-        <v>57076</v>
+        <v>57103</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2210,20 +2222,20 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>103053</v>
+        <v>103057</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Lappsparv</t>
+          <t>Sävsparv</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Calcarius lapponicus</t>
+          <t>Emberiza schoeniclus</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -2231,18 +2243,10 @@
           <t>(Linnaeus, 1758)</t>
         </is>
       </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr">
-        <is>
-          <t>födosökande</t>
-        </is>
-      </c>
+      <c r="M15" t="inlineStr"/>
       <c r="N15" t="inlineStr"/>
       <c r="P15" t="inlineStr">
         <is>
@@ -2312,10 +2316,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>112292314</v>
+        <v>112281154</v>
       </c>
       <c r="B16" t="n">
-        <v>56446</v>
+        <v>56575</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2328,33 +2332,29 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>100049</v>
+        <v>103021</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>(Conrad von Baldenstein, 1827)</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
       <c r="M16" t="inlineStr">
         <is>
-          <t>lockläte, övriga läten</t>
+          <t>födosökande</t>
         </is>
       </c>
       <c r="N16" t="inlineStr"/>
@@ -2394,12 +2394,12 @@
       </c>
       <c r="Y16" t="inlineStr">
         <is>
-          <t>2023-09-15</t>
+          <t>2023-09-14</t>
         </is>
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>2023-09-15</t>
+          <t>2023-09-14</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2426,10 +2426,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>112281233</v>
+        <v>112292314</v>
       </c>
       <c r="B17" t="n">
-        <v>57042</v>
+        <v>56446</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2438,20 +2438,20 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>EN</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>103042</v>
+        <v>100049</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Grönfink</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Chloris chloris</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -2459,12 +2459,16 @@
           <t>(Linnaeus, 1758)</t>
         </is>
       </c>
-      <c r="I17" t="inlineStr"/>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
       <c r="M17" t="inlineStr">
         <is>
-          <t>födosökande</t>
+          <t>lockläte, övriga läten</t>
         </is>
       </c>
       <c r="N17" t="inlineStr"/>
@@ -2504,12 +2508,12 @@
       </c>
       <c r="Y17" t="inlineStr">
         <is>
-          <t>2023-09-14</t>
+          <t>2023-09-15</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>2023-09-14</t>
+          <t>2023-09-15</t>
         </is>
       </c>
       <c r="AD17" t="b">
@@ -2536,10 +2540,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>112279543</v>
+        <v>112279542</v>
       </c>
       <c r="B18" t="n">
-        <v>56847</v>
+        <v>56841</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2552,21 +2556,21 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>102999</v>
+        <v>103001</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Björktrast</t>
+          <t>Rödvingetrast</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Turdus pilaris</t>
+          <t>Turdus iliacus</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Linnaeus, 1758</t>
+          <t>Linnaeus, 1766</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
@@ -2642,10 +2646,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>112279532</v>
+        <v>112279516</v>
       </c>
       <c r="B19" t="n">
-        <v>56476</v>
+        <v>56321</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2658,21 +2662,21 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>102611</v>
+        <v>100001</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Stenfalk</t>
+          <t>Duvhök</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Falco columbarius</t>
+          <t>Accipiter gentilis</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Linnaeus, 1758</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -2682,7 +2686,11 @@
       </c>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
-      <c r="M19" t="inlineStr"/>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>födosökande</t>
+        </is>
+      </c>
       <c r="N19" t="inlineStr"/>
       <c r="P19" t="inlineStr">
         <is>
@@ -2752,10 +2760,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>112281154</v>
+        <v>112279543</v>
       </c>
       <c r="B20" t="n">
-        <v>56575</v>
+        <v>56847</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2768,31 +2776,27 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>103021</v>
+        <v>102999</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Björktrast</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Turdus pilaris</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
+          <t>Linnaeus, 1758</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
-      <c r="M20" t="inlineStr">
-        <is>
-          <t>födosökande</t>
-        </is>
-      </c>
+      <c r="M20" t="inlineStr"/>
       <c r="N20" t="inlineStr"/>
       <c r="P20" t="inlineStr">
         <is>
@@ -2862,10 +2866,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>112279516</v>
+        <v>112279532</v>
       </c>
       <c r="B21" t="n">
-        <v>56321</v>
+        <v>56476</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2878,21 +2882,21 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>100001</v>
+        <v>102611</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Duvhök</t>
+          <t>Stenfalk</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Accipiter gentilis</t>
+          <t>Falco columbarius</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>Linnaeus, 1758</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -2902,11 +2906,7 @@
       </c>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
-      <c r="M21" t="inlineStr">
-        <is>
-          <t>födosökande</t>
-        </is>
-      </c>
+      <c r="M21" t="inlineStr"/>
       <c r="N21" t="inlineStr"/>
       <c r="P21" t="inlineStr">
         <is>
